--- a/6/2/3/Sectores spot mensual 2007 a 2021 - Trimestral.xlsx
+++ b/6/2/3/Sectores spot mensual 2007 a 2021 - Trimestral.xlsx
@@ -4548,10 +4548,10 @@
         <v>30720</v>
       </c>
       <c r="H59">
-        <v>42108</v>
+        <v>42107</v>
       </c>
       <c r="I59">
-        <v>22825</v>
+        <v>22824</v>
       </c>
       <c r="J59">
         <v>19283</v>
@@ -4584,7 +4584,7 @@
         <v>1186</v>
       </c>
       <c r="T59">
-        <v>26468</v>
+        <v>26467</v>
       </c>
       <c r="U59">
         <v>10987</v>

--- a/6/2/3/Sectores spot mensual 2007 a 2021 - Trimestral.xlsx
+++ b/6/2/3/Sectores spot mensual 2007 a 2021 - Trimestral.xlsx
@@ -4584,13 +4584,13 @@
         <v>1186</v>
       </c>
       <c r="T59">
-        <v>26467</v>
+        <v>26465</v>
       </c>
       <c r="U59">
-        <v>10987</v>
+        <v>10986</v>
       </c>
       <c r="V59">
-        <v>15481</v>
+        <v>15479</v>
       </c>
     </row>
   </sheetData>

--- a/6/2/3/Sectores spot mensual 2007 a 2021 - Trimestral.xlsx
+++ b/6/2/3/Sectores spot mensual 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>Serie</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4593,6 +4596,74 @@
         <v>15479</v>
       </c>
     </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>14940</v>
+      </c>
+      <c r="C60">
+        <v>6925</v>
+      </c>
+      <c r="D60">
+        <v>8015</v>
+      </c>
+      <c r="E60">
+        <v>17415</v>
+      </c>
+      <c r="F60">
+        <v>8179</v>
+      </c>
+      <c r="G60">
+        <v>9236</v>
+      </c>
+      <c r="H60">
+        <v>40323</v>
+      </c>
+      <c r="I60">
+        <v>22450</v>
+      </c>
+      <c r="J60">
+        <v>17873</v>
+      </c>
+      <c r="K60">
+        <v>1636</v>
+      </c>
+      <c r="L60">
+        <v>905</v>
+      </c>
+      <c r="M60">
+        <v>731</v>
+      </c>
+      <c r="N60">
+        <v>14154</v>
+      </c>
+      <c r="O60">
+        <v>8327</v>
+      </c>
+      <c r="P60">
+        <v>5827</v>
+      </c>
+      <c r="Q60">
+        <v>4065</v>
+      </c>
+      <c r="R60">
+        <v>2796</v>
+      </c>
+      <c r="S60">
+        <v>1269</v>
+      </c>
+      <c r="T60">
+        <v>28401</v>
+      </c>
+      <c r="U60">
+        <v>10594</v>
+      </c>
+      <c r="V60">
+        <v>17807</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
